--- a/rawdata/9m/2024年9月の日当直・ICU勤務・一次救急希望（回答）.xlsx
+++ b/rawdata/9m/2024年9月の日当直・ICU勤務・一次救急希望（回答）.xlsx
@@ -16,6 +16,11 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="AF10">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="AI10">
       <text>
         <t xml:space="preserve">返信システムがこの値を更新しました。</t>
@@ -32,6 +37,16 @@
       </text>
     </comment>
     <comment authorId="0" ref="AQ10">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BO10">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BR10">
       <text>
         <t xml:space="preserve">返信システムがこの値を更新しました。</t>
       </text>
@@ -71,6 +86,11 @@
         <t xml:space="preserve">返信システムがこの値を更新しました。</t>
       </text>
     </comment>
+    <comment authorId="0" ref="DA10">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="DD22">
       <text>
         <t xml:space="preserve">返信システムがこの値を更新しました。</t>
@@ -81,12 +101,52 @@
         <t xml:space="preserve">返信システムがこの値を更新しました。</t>
       </text>
     </comment>
+    <comment authorId="0" ref="U64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AA64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AI64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AJ64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AK64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AV64">
+      <text>
+        <t xml:space="preserve">返信システムがこの値を更新しました。</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="303">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -772,6 +832,234 @@
   </si>
   <si>
     <t>平日の内科1当直2回を希望します。</t>
+  </si>
+  <si>
+    <t>matsunaga.takahiro@gmail.com</t>
+  </si>
+  <si>
+    <t>松永崇宏</t>
+  </si>
+  <si>
+    <t>ayami.iwasaki.59@gmail.com</t>
+  </si>
+  <si>
+    <t>岩崎文美</t>
+  </si>
+  <si>
+    <t>t.1129one@gnail.com</t>
+  </si>
+  <si>
+    <t>10月から移動9/2-7夏休み</t>
+  </si>
+  <si>
+    <t>lop.kiramaru@gmail.com</t>
+  </si>
+  <si>
+    <t>石井真央</t>
+  </si>
+  <si>
+    <t>yasuhiroaoki@keio.jp</t>
+  </si>
+  <si>
+    <t>青木康浩</t>
+  </si>
+  <si>
+    <t>10年目</t>
+  </si>
+  <si>
+    <t>外勤のため水曜日は不可です</t>
+  </si>
+  <si>
+    <t>いつもありがとうございます。よろしくお願い致します。</t>
+  </si>
+  <si>
+    <t>saki.kawase7@gmail.com</t>
+  </si>
+  <si>
+    <t>川瀬　咲</t>
+  </si>
+  <si>
+    <t>shinjiyoshida0702@gmail.com</t>
+  </si>
+  <si>
+    <t>吉田　心慈</t>
+  </si>
+  <si>
+    <t>n.takagi067a@gmail.com</t>
+  </si>
+  <si>
+    <t>髙木菜々美</t>
+  </si>
+  <si>
+    <t>26.27日に夏休みを取得しています。</t>
+  </si>
+  <si>
+    <t>mitsuya0111@gmail.com</t>
+  </si>
+  <si>
+    <t>片山充哉</t>
+  </si>
+  <si>
+    <t>感染症内科</t>
+  </si>
+  <si>
+    <t>9/8が第一希望です。9/23が第二希望です。</t>
+  </si>
+  <si>
+    <t>火曜日が外勤日で避けていただけたら幸いです。</t>
+  </si>
+  <si>
+    <t>火曜日が外勤日になります。どうぞよろしくお願いします。</t>
+  </si>
+  <si>
+    <t>kentaro.komiya1120@gmail.com</t>
+  </si>
+  <si>
+    <t>小宮健太郎</t>
+  </si>
+  <si>
+    <t>koririsa17213@gmail.com</t>
+  </si>
+  <si>
+    <t>入佐　薫</t>
+  </si>
+  <si>
+    <t>子供の預け先の都合で申し訳ありません① 9/14 ② 9/28 ③ 9/21 でお願いします。</t>
+  </si>
+  <si>
+    <t>１０月に調整できればと思います、よろしくお願いします</t>
+  </si>
+  <si>
+    <t>keikofujimura0317@gmail.com</t>
+  </si>
+  <si>
+    <t>藤村 慶子</t>
+  </si>
+  <si>
+    <t>9/7&gt;9/14&gt;9/16&gt;9/21</t>
+  </si>
+  <si>
+    <t>水曜日外勤木曜日外来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新美先生 
+お疲れ様です。
+見やすく調整頂きましてありがとうございます。
+</t>
+  </si>
+  <si>
+    <t>hiromichi.yoshida@med.toho-u.ac.jp</t>
+  </si>
+  <si>
+    <t>吉田博道</t>
+  </si>
+  <si>
+    <t>kazuyo.wa@gmail.com</t>
+  </si>
+  <si>
+    <t>渡邉　多代</t>
+  </si>
+  <si>
+    <t>kadoen12450@gmail.com</t>
+  </si>
+  <si>
+    <t>門松賢</t>
+  </si>
+  <si>
+    <t>yuuki.gnox616bw@gmail.com</t>
+  </si>
+  <si>
+    <t>臼坂優希</t>
+  </si>
+  <si>
+    <t>10月から病院移動のため、9月下旬に夏休み取得予定です。不可日が多くて申し訳ありません。</t>
+  </si>
+  <si>
+    <t>light.24-kobe_0_0@ezweb.ne.jp</t>
+  </si>
+  <si>
+    <t>先崎光</t>
+  </si>
+  <si>
+    <t>medtakanashi0318@gmail.com</t>
+  </si>
+  <si>
+    <t>高梨航輔</t>
+  </si>
+  <si>
+    <t>9月初週は休暇をいただく予定であり、当日直避けていただけると幸いです。</t>
+  </si>
+  <si>
+    <t>9月初週は休暇いただく予定であり、避けていただけると幸いです。</t>
+  </si>
+  <si>
+    <t>t_shinozaki_mr@yahoo.co.jp</t>
+  </si>
+  <si>
+    <t>篠﨑太郎</t>
+  </si>
+  <si>
+    <t>tsaga0401@gmail.com</t>
+  </si>
+  <si>
+    <t>谷岡友則</t>
+  </si>
+  <si>
+    <t>gottfried-wilhelm-leibniz@nifty.com</t>
+  </si>
+  <si>
+    <t>津山　頌章</t>
+  </si>
+  <si>
+    <t>遅くなりすみません。何卒よろしくお願い致します。</t>
+  </si>
+  <si>
+    <t>shuntaro.oribe628@gmail.com</t>
+  </si>
+  <si>
+    <t>織部　峻太郎</t>
+  </si>
+  <si>
+    <t>8月ICU当直勤務済です</t>
+  </si>
+  <si>
+    <t>遅くなり、改めて申し訳ありませんでした。科内のオンコール集計の締め切りをさらに早くするなどして再発防止に努めたいと存じます。</t>
+  </si>
+  <si>
+    <t>wahwah.bassball45@gmail.com</t>
+  </si>
+  <si>
+    <t>雪野　満</t>
+  </si>
+  <si>
+    <t>r_satomi@hotmail.com</t>
+  </si>
+  <si>
+    <t>里見　良輔</t>
+  </si>
+  <si>
+    <t>alex.tfkd@gmail.com</t>
+  </si>
+  <si>
+    <t>勝俣敬寛</t>
+  </si>
+  <si>
+    <t>土曜であればE到着が嬉しいです</t>
+  </si>
+  <si>
+    <t>わかりやすくで良いと思います！</t>
+  </si>
+  <si>
+    <t>twmushiho9@gmail.com</t>
+  </si>
+  <si>
+    <t>福井梓穂</t>
+  </si>
+  <si>
+    <t>tatsuposhige@gmail.com</t>
+  </si>
+  <si>
+    <t>大重達寛</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2362,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>45479.955391261574</v>
+        <v>45490.36633076389</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>150</v>
@@ -2131,7 +2419,7 @@
         <v>124</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG10" s="3" t="s">
         <v>125</v>
@@ -2233,7 +2521,7 @@
         <v>124</v>
       </c>
       <c r="BO10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BP10" s="3" t="s">
         <v>125</v>
@@ -2242,7 +2530,7 @@
         <v>124</v>
       </c>
       <c r="BR10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS10" s="3" t="s">
         <v>125</v>
@@ -2344,7 +2632,7 @@
         <v>124</v>
       </c>
       <c r="DA10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DB10" s="3" t="s">
         <v>125</v>
@@ -6692,6 +6980,4475 @@
       </c>
       <c r="CR40" s="3" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>45489.422416828704</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR41" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>45489.662199293976</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CJ42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CK42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CN42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CO42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CR42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>45489.79236651621</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CQ43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR43" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45490.407154872686</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CW44" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45490.71012894676</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45490.771653414355</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CK46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM46" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45491.53407648148</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CC47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CG47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CJ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CK47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CN47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CO47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CV47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CX47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DA47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DC47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DE47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DG47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DI47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK47" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>45491.64556210648</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR48" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>45491.9367933912</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DI49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ49" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>45492.43802353009</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BE50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CQ50" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="CR50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CT50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DL50" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45492.56790530092</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CU51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CV51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CW51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CX51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CZ51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DA51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DC51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DD51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DE51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DF51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DG51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DH51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DI51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DJ51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK51" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>45492.73256123843</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CQ52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="CR52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DK52" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>45492.73640174769</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CU53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DL53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="DM53" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45492.88083142361</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DB54" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45493.44888302083</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR55" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45493.629363125</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DK56" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45493.90884895834</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ57" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DG57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DK57" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45494.42822446759</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CT58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CU58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CV58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CZ58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DC58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DD58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DE58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DH58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DI58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK58" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45494.59396804398</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ59" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BA59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CZ59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DA59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DC59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DD59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DE59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DF59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DG59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DH59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DI59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DJ59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DL59" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45494.806942870375</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DK60" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45495.13949090277</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DK61" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45495.32330217592</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CK62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CN62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CO62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CR62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CW62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CX62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DC62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DF62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DG62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DJ62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DM62" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45495.41158907408</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CQ63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="CR63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CT63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM63" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45495.445341597224</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CT64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ64" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45495.442644317125</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CT65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ65" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45495.69099744213</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ66" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BA66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CH66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CK66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CR66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CU66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CW66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CX66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CZ66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DC66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DD66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DF66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DG66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DH66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DJ66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DM66" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45496.668619421296</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CW67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ67" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45496.72433668982</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DK68" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
